--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -202,12 +202,6 @@
     <t>siłownia 1</t>
   </si>
   <si>
-    <t>salon 1</t>
-  </si>
-  <si>
-    <t>salon 2</t>
-  </si>
-  <si>
     <t>zal_6_up</t>
   </si>
   <si>
@@ -278,6 +272,12 @@
   </si>
   <si>
     <t>kuchnia 2</t>
+  </si>
+  <si>
+    <t>salon 1 (rol_001)</t>
+  </si>
+  <si>
+    <t>salon 2 (rol_002)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
@@ -1057,10 +1057,10 @@
         <v>7</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
@@ -1220,10 +1220,10 @@
         <v>3</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
@@ -1566,11 +1566,11 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="15"/>
@@ -1601,7 +1601,7 @@
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I26" s="1"/>
@@ -1632,11 +1632,11 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="15"/>
@@ -1664,7 +1664,7 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I28" s="1"/>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1772,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="15"/>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="2">
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="2">
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="2">
@@ -1878,10 +1878,10 @@
         <v>7</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="2">
@@ -1906,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="2">

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Obwód</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>salon 2 (rol_002)</t>
+  </si>
+  <si>
+    <t>noc (gdzie?)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,12 +355,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -371,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,9 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,17 +815,19 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -844,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>19</v>
       </c>
       <c r="L3" s="2">
@@ -866,14 +862,17 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2">
         <v>2</v>
       </c>
@@ -882,7 +881,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
@@ -899,14 +898,17 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2">
         <v>3</v>
       </c>
@@ -915,7 +917,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
@@ -932,14 +934,17 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2">
         <v>4</v>
       </c>
@@ -948,7 +953,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
@@ -965,14 +970,17 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2">
         <v>5</v>
       </c>
@@ -981,7 +989,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
@@ -998,15 +1006,17 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2">
         <v>6</v>
       </c>
@@ -1015,7 +1025,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
@@ -1033,15 +1043,17 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="2">
         <v>7</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
@@ -1072,15 +1084,17 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2">
         <v>8</v>
       </c>
@@ -1089,7 +1103,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
@@ -1107,6 +1121,8 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1121,17 +1137,19 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>16</v>
       </c>
       <c r="G12" s="2">
@@ -1142,7 +1160,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>20</v>
       </c>
       <c r="L12" s="2">
@@ -1164,15 +1182,17 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="1">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
@@ -1181,7 +1201,7 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
@@ -1199,14 +1219,17 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="1">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
@@ -1215,7 +1238,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
@@ -1235,15 +1258,17 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="1">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="2">
         <v>4</v>
       </c>
@@ -1252,7 +1277,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
@@ -1270,14 +1295,17 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="1">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="2">
         <v>5</v>
       </c>
@@ -1288,7 +1316,7 @@
         <v>49</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
@@ -1303,14 +1331,17 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="1">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="2">
         <v>6</v>
       </c>
@@ -1319,7 +1350,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="15"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
@@ -1334,14 +1365,17 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="1">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="2">
         <v>7</v>
       </c>
@@ -1352,7 +1386,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
@@ -1367,15 +1401,17 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="1">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="2">
         <v>8</v>
       </c>
@@ -1384,7 +1420,7 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
@@ -1400,6 +1436,8 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1414,16 +1452,19 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>13</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="1">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>17</v>
       </c>
       <c r="G21" s="2">
@@ -1436,7 +1477,7 @@
         <v>59</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>21</v>
       </c>
       <c r="L21" s="2">
@@ -1453,14 +1494,17 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="1">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
@@ -1469,7 +1513,7 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="15"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="2">
         <v>2</v>
       </c>
@@ -1484,15 +1528,17 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="1">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
@@ -1503,7 +1549,7 @@
         <v>53</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="2">
         <v>3</v>
       </c>
@@ -1519,15 +1565,17 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
@@ -1538,7 +1586,7 @@
         <v>53</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="2">
         <v>4</v>
       </c>
@@ -1554,26 +1602,28 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="1">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="15"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="2">
         <v>5</v>
       </c>
@@ -1589,24 +1639,26 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="1">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="15"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="2">
         <v>6</v>
       </c>
@@ -1622,24 +1674,24 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="15"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="2">
         <v>7</v>
       </c>
@@ -1655,21 +1707,22 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="15"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="2">
         <v>8</v>
       </c>
@@ -1684,6 +1737,8 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1698,14 +1753,15 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="F30" s="15">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="F30" s="14">
         <v>18</v>
       </c>
       <c r="G30" s="2">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <v>22</v>
       </c>
       <c r="L30" s="2">
@@ -1733,12 +1789,13 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
@@ -1747,7 +1804,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="15"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="2">
         <v>2</v>
       </c>
@@ -1762,12 +1819,13 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
@@ -1778,7 +1836,7 @@
         <v>64</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="15"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="2">
         <v>3</v>
       </c>
@@ -1793,19 +1851,20 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="2">
         <v>4</v>
       </c>
@@ -1818,19 +1877,20 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="2">
         <v>5</v>
       </c>
@@ -1843,19 +1903,20 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="2">
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="2">
         <v>6</v>
       </c>
@@ -1868,12 +1929,13 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="2">
         <v>7</v>
       </c>
@@ -1883,7 +1945,7 @@
       <c r="I36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="2">
         <v>7</v>
       </c>
@@ -1896,19 +1958,20 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="F37" s="15"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="2">
         <v>8</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="2">
         <v>8</v>
       </c>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Obwód</t>
   </si>
@@ -70,9 +70,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>noc</t>
-  </si>
-  <si>
     <t>pralnia</t>
   </si>
   <si>
@@ -118,169 +115,139 @@
     <t>O</t>
   </si>
   <si>
-    <t>rol_2_up</t>
-  </si>
-  <si>
-    <t>rol_2_down</t>
-  </si>
-  <si>
-    <t>zal_12_up</t>
-  </si>
-  <si>
-    <t>zal_12_down</t>
-  </si>
-  <si>
-    <t>zal_7_up</t>
-  </si>
-  <si>
-    <t>zal_7_down</t>
-  </si>
-  <si>
-    <t>zal_10_up</t>
-  </si>
-  <si>
-    <t>zal_10_down</t>
-  </si>
-  <si>
-    <t>pom 02</t>
-  </si>
-  <si>
-    <t>zal_7A_up</t>
-  </si>
-  <si>
-    <t>zal_7A_down</t>
-  </si>
-  <si>
-    <t>zal_14_up</t>
-  </si>
-  <si>
-    <t>zal_14_down</t>
-  </si>
-  <si>
-    <t>zal_9_up</t>
-  </si>
-  <si>
-    <t>zal_9_down</t>
-  </si>
-  <si>
-    <t>zal_11_up</t>
-  </si>
-  <si>
-    <t>zal_11_down</t>
-  </si>
-  <si>
-    <t>pom 04</t>
-  </si>
-  <si>
-    <t>rol_1_up</t>
-  </si>
-  <si>
-    <t>rol_1_down</t>
-  </si>
-  <si>
-    <t>ZD 11</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
-    <t>rol_3_up</t>
-  </si>
-  <si>
-    <t>rol_3_down</t>
-  </si>
-  <si>
-    <t>rol_4_up</t>
-  </si>
-  <si>
-    <t>rol_4_down</t>
-  </si>
-  <si>
     <t>siłownia 2</t>
   </si>
   <si>
     <t>siłownia 1</t>
   </si>
   <si>
-    <t>zal_6_up</t>
-  </si>
-  <si>
-    <t>zal_6_down</t>
-  </si>
-  <si>
-    <t>zal_15_up</t>
-  </si>
-  <si>
-    <t>zal_15_down</t>
-  </si>
-  <si>
-    <t>kuchnia</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>rol_5_up</t>
-  </si>
-  <si>
-    <t>rol_5_down</t>
-  </si>
-  <si>
-    <t>sauna 1</t>
-  </si>
-  <si>
-    <t>zal_8_up</t>
-  </si>
-  <si>
-    <t>zal_8_down</t>
-  </si>
-  <si>
-    <t>pom 05</t>
-  </si>
-  <si>
-    <t>zal_13_up</t>
-  </si>
-  <si>
-    <t>zal_13_down</t>
-  </si>
-  <si>
-    <t>ekran_up</t>
-  </si>
-  <si>
-    <t>ekran_down</t>
-  </si>
-  <si>
-    <t>zal_4_up</t>
-  </si>
-  <si>
-    <t>zal_4_down</t>
-  </si>
-  <si>
-    <t>rol_6_up</t>
-  </si>
-  <si>
-    <t>rol_6_down</t>
-  </si>
-  <si>
-    <t>kuchnia 1</t>
-  </si>
-  <si>
-    <t>rol_7_up</t>
-  </si>
-  <si>
-    <t>rol_7_down</t>
-  </si>
-  <si>
-    <t>kuchnia 2</t>
-  </si>
-  <si>
-    <t>salon 1 (rol_001)</t>
-  </si>
-  <si>
-    <t>salon 2 (rol_002)</t>
-  </si>
-  <si>
     <t>noc (gdzie?)</t>
+  </si>
+  <si>
+    <t>rol_A</t>
+  </si>
+  <si>
+    <t>rol_B</t>
+  </si>
+  <si>
+    <t>rol_C</t>
+  </si>
+  <si>
+    <t>rol_D</t>
+  </si>
+  <si>
+    <t>rol_E</t>
+  </si>
+  <si>
+    <t>rol_F</t>
+  </si>
+  <si>
+    <t>rol_G</t>
+  </si>
+  <si>
+    <t>rol_H</t>
+  </si>
+  <si>
+    <t>rol_I</t>
+  </si>
+  <si>
+    <t>rol_J</t>
+  </si>
+  <si>
+    <t>rol_K</t>
+  </si>
+  <si>
+    <t>rol_L</t>
+  </si>
+  <si>
+    <t>rol_M</t>
+  </si>
+  <si>
+    <t>rol_N</t>
+  </si>
+  <si>
+    <t>rol_O</t>
+  </si>
+  <si>
+    <t>rol_P</t>
+  </si>
+  <si>
+    <t>rol_R</t>
+  </si>
+  <si>
+    <t>rol_S</t>
+  </si>
+  <si>
+    <t>rol_T</t>
+  </si>
+  <si>
+    <t>rol_U</t>
+  </si>
+  <si>
+    <t>rol_W</t>
+  </si>
+  <si>
+    <t>rol_X</t>
+  </si>
+  <si>
+    <t>Z 7A</t>
+  </si>
+  <si>
+    <t>Z 14</t>
+  </si>
+  <si>
+    <t>Z 6</t>
+  </si>
+  <si>
+    <t>Z12</t>
+  </si>
+  <si>
+    <t>Z7</t>
+  </si>
+  <si>
+    <t>Z 10 (pom 02 ?sypialnia goscie?)</t>
+  </si>
+  <si>
+    <t>Z9 (pom04 ?mala lazienka?)</t>
+  </si>
+  <si>
+    <t>Z11 (pom 02 ?sypialnia goscie?)</t>
+  </si>
+  <si>
+    <t>salon 1 (taras)</t>
+  </si>
+  <si>
+    <t>salon 2 (duże okno po prawej)</t>
+  </si>
+  <si>
+    <t>Z5 (kuchnia)</t>
+  </si>
+  <si>
+    <t>Z15</t>
+  </si>
+  <si>
+    <t>SPA 1 (sauna)</t>
+  </si>
+  <si>
+    <t>Z8 (garderoba)</t>
+  </si>
+  <si>
+    <t>Z13</t>
+  </si>
+  <si>
+    <t>EKRAN</t>
+  </si>
+  <si>
+    <t>Z4 (jadalnia)</t>
+  </si>
+  <si>
+    <t>Z3 (jadalnia)</t>
+  </si>
+  <si>
+    <t>kuchnia małe okno</t>
   </si>
 </sst>
 </file>
@@ -368,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +378,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,7 +711,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,17 +809,17 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="17">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="14">
@@ -846,11 +828,11 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>71</v>
+      <c r="M3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -872,22 +854,19 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="2">
+      <c r="F4" s="17"/>
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1"/>
       <c r="K4" s="14"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -908,21 +887,26 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="2">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="H5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="14"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>72</v>
+      <c r="M5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -944,22 +928,19 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="2">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="1"/>
       <c r="K6" s="14"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -980,21 +961,26 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="2">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="H7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="14"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>74</v>
+      <c r="M7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1016,23 +1002,19 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="2">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18">
         <v>6</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
       <c r="K8" s="14"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="1"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1047,32 +1029,32 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
+      <c r="C9" s="1">
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="2">
+        <v>34</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>40</v>
+      <c r="I9" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="14"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>64</v>
+      <c r="M9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1092,25 +1074,21 @@
         <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
       <c r="K10" s="14"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="1"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1123,8 +1101,10 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="M11" s="1"/>
       <c r="P11" s="1"/>
@@ -1147,18 +1127,20 @@
         <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="14">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="14">
         <v>20</v>
@@ -1166,11 +1148,11 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>80</v>
+      <c r="M12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1190,25 +1172,21 @@
         <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="2">
+        <v>18</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18">
         <v>2</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1"/>
       <c r="K13" s="14"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="1"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1227,26 +1205,28 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="2">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18">
         <v>3</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="H14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="14"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>83</v>
+      <c r="M14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1266,25 +1246,21 @@
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1"/>
       <c r="K15" s="14"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="1"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1303,24 +1279,24 @@
         <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18">
         <v>5</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>49</v>
+      <c r="H16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="14"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="16"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1339,22 +1315,20 @@
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="2">
+        <v>22</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18">
         <v>6</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="1"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1"/>
       <c r="K17" s="14"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="16"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1373,24 +1347,24 @@
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="2">
+        <v>23</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18">
         <v>7</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>40</v>
+      <c r="H18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="14"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="16"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1409,22 +1383,20 @@
         <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="2">
+        <v>24</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <v>8</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="1"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1"/>
       <c r="K19" s="14"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1462,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="14">
         <v>17</v>
@@ -1470,11 +1442,11 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>59</v>
+      <c r="H21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="14">
@@ -1502,16 +1474,14 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="1"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
       <c r="K22" s="14"/>
       <c r="L22" s="2">
@@ -1536,17 +1506,17 @@
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>53</v>
+      <c r="H23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="14"/>
@@ -1573,18 +1543,14 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="14"/>
       <c r="L24" s="2">
@@ -1610,17 +1576,17 @@
         <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>84</v>
+      <c r="H25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="14"/>
@@ -1647,16 +1613,14 @@
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="1"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="1"/>
       <c r="K26" s="14"/>
       <c r="L26" s="2">
@@ -1684,11 +1648,11 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>85</v>
+      <c r="H27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="14"/>
@@ -1717,10 +1681,8 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="1"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="1"/>
       <c r="K28" s="14"/>
       <c r="L28" s="2">
@@ -1767,10 +1729,12 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="1"/>
+      <c r="H30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="14">
         <v>22</v>
@@ -1799,10 +1763,8 @@
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="1"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="1"/>
       <c r="K31" s="14"/>
       <c r="L31" s="2">
@@ -1829,11 +1791,11 @@
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>64</v>
+      <c r="H32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="14"/>
@@ -1861,9 +1823,8 @@
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
       <c r="K33" s="14"/>
       <c r="L33" s="2">
         <v>4</v>
@@ -1887,8 +1848,11 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>62</v>
+      <c r="H34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="2">
@@ -1913,9 +1877,8 @@
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
       <c r="K35" s="14"/>
       <c r="L35" s="2">
         <v>6</v>
@@ -1939,11 +1902,11 @@
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>68</v>
+      <c r="H36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="2">
@@ -1968,9 +1931,8 @@
       <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="2">
         <v>8</v>
@@ -1978,7 +1940,47 @@
       <c r="M37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="56">
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="K30:K37"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="F3:F10"/>
@@ -1991,6 +1993,10 @@
     <mergeCell ref="K3:K10"/>
     <mergeCell ref="K12:K19"/>
     <mergeCell ref="K21:K28"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Obwód</t>
   </si>
@@ -118,136 +118,112 @@
     <t>???</t>
   </si>
   <si>
-    <t>siłownia 2</t>
-  </si>
-  <si>
-    <t>siłownia 1</t>
-  </si>
-  <si>
-    <t>noc (gdzie?)</t>
-  </si>
-  <si>
-    <t>rol_A</t>
-  </si>
-  <si>
     <t>rol_B</t>
   </si>
   <si>
-    <t>rol_C</t>
-  </si>
-  <si>
-    <t>rol_D</t>
-  </si>
-  <si>
-    <t>rol_E</t>
-  </si>
-  <si>
     <t>rol_F</t>
   </si>
   <si>
-    <t>rol_G</t>
-  </si>
-  <si>
-    <t>rol_H</t>
-  </si>
-  <si>
-    <t>rol_I</t>
-  </si>
-  <si>
     <t>rol_J</t>
   </si>
   <si>
-    <t>rol_K</t>
-  </si>
-  <si>
-    <t>rol_L</t>
-  </si>
-  <si>
-    <t>rol_M</t>
-  </si>
-  <si>
-    <t>rol_N</t>
-  </si>
-  <si>
     <t>rol_O</t>
   </si>
   <si>
-    <t>rol_P</t>
-  </si>
-  <si>
-    <t>rol_R</t>
-  </si>
-  <si>
-    <t>rol_S</t>
-  </si>
-  <si>
-    <t>rol_T</t>
-  </si>
-  <si>
-    <t>rol_U</t>
-  </si>
-  <si>
-    <t>rol_W</t>
-  </si>
-  <si>
-    <t>rol_X</t>
-  </si>
-  <si>
-    <t>Z 7A</t>
-  </si>
-  <si>
-    <t>Z 14</t>
-  </si>
-  <si>
-    <t>Z 6</t>
-  </si>
-  <si>
-    <t>Z12</t>
-  </si>
-  <si>
-    <t>Z7</t>
-  </si>
-  <si>
-    <t>Z 10 (pom 02 ?sypialnia goscie?)</t>
-  </si>
-  <si>
-    <t>Z9 (pom04 ?mala lazienka?)</t>
-  </si>
-  <si>
-    <t>Z11 (pom 02 ?sypialnia goscie?)</t>
-  </si>
-  <si>
-    <t>salon 1 (taras)</t>
-  </si>
-  <si>
-    <t>salon 2 (duże okno po prawej)</t>
-  </si>
-  <si>
-    <t>Z5 (kuchnia)</t>
-  </si>
-  <si>
-    <t>Z15</t>
-  </si>
-  <si>
-    <t>SPA 1 (sauna)</t>
-  </si>
-  <si>
-    <t>Z8 (garderoba)</t>
-  </si>
-  <si>
-    <t>Z13</t>
-  </si>
-  <si>
-    <t>EKRAN</t>
-  </si>
-  <si>
-    <t>Z4 (jadalnia)</t>
-  </si>
-  <si>
-    <t>Z3 (jadalnia)</t>
-  </si>
-  <si>
-    <t>kuchnia małe okno</t>
+    <t>rol_010</t>
+  </si>
+  <si>
+    <t>rol_022</t>
+  </si>
+  <si>
+    <t>Łazienka Duża</t>
+  </si>
+  <si>
+    <t>rol_027</t>
+  </si>
+  <si>
+    <t>Sypialnia Goście</t>
+  </si>
+  <si>
+    <t>rol_021</t>
+  </si>
+  <si>
+    <t>??? (Wywala S-kę)</t>
+  </si>
+  <si>
+    <t>rol_028</t>
+  </si>
+  <si>
+    <t>Łazienka Mała</t>
+  </si>
+  <si>
+    <t>rol_026</t>
+  </si>
+  <si>
+    <t>rol_011</t>
+  </si>
+  <si>
+    <t>Siłownia</t>
+  </si>
+  <si>
+    <t>rol_007</t>
+  </si>
+  <si>
+    <t>Salon</t>
+  </si>
+  <si>
+    <t>rol_009</t>
+  </si>
+  <si>
+    <t>rol_023</t>
+  </si>
+  <si>
+    <t>Sypialnia Duża</t>
+  </si>
+  <si>
+    <t>rol_004</t>
+  </si>
+  <si>
+    <t>Kuchnia</t>
+  </si>
+  <si>
+    <t>rol_012</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>rol_029</t>
+  </si>
+  <si>
+    <t>Garderoba</t>
+  </si>
+  <si>
+    <t>rol_024</t>
+  </si>
+  <si>
+    <t>Sypialnia Dzieci</t>
+  </si>
+  <si>
+    <t>Ekran</t>
+  </si>
+  <si>
+    <t>rol_005</t>
+  </si>
+  <si>
+    <t>Jadalnia</t>
+  </si>
+  <si>
+    <t>rol_006</t>
+  </si>
+  <si>
+    <t>rol_003</t>
+  </si>
+  <si>
+    <t>podłogowe</t>
+  </si>
+  <si>
+    <t>? Mała Łazienka ?</t>
   </si>
 </sst>
 </file>
@@ -335,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +352,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,16 +365,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,7 +699,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +785,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -809,30 +797,30 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="19">
         <v>15</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>32</v>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="14">
+      <c r="K3" s="16">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>70</v>
+      <c r="M3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -844,7 +832,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -854,19 +842,19 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18">
+      <c r="F4" s="19"/>
+      <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -877,7 +865,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -887,26 +875,26 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18">
+      <c r="F5" s="19"/>
+      <c r="G5" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>60</v>
+      <c r="H5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>71</v>
+      <c r="M5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -918,7 +906,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -928,19 +916,19 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18">
+      <c r="F6" s="19"/>
+      <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -951,7 +939,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -961,26 +949,26 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18">
+      <c r="F7" s="19"/>
+      <c r="G7" s="15">
         <v>5</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>61</v>
+      <c r="I7" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>72</v>
+      <c r="M7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -992,7 +980,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1002,19 +990,19 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18">
+      <c r="F8" s="19"/>
+      <c r="G8" s="15">
         <v>6</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1025,7 +1013,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1033,28 +1021,28 @@
         <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18">
+        <v>66</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="15">
         <v>7</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>62</v>
+      <c r="H9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>73</v>
+      <c r="M9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1066,7 +1054,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1076,19 +1064,19 @@
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
+      <c r="F10" s="19"/>
+      <c r="G10" s="15">
         <v>8</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1101,8 +1089,8 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -1117,7 +1105,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1129,30 +1117,30 @@
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <v>16</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>57</v>
+      <c r="H12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="14">
+      <c r="K12" s="16">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>74</v>
+      <c r="M12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1164,7 +1152,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1174,19 +1162,19 @@
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15">
         <v>2</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1197,7 +1185,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1207,26 +1195,26 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18">
+      <c r="F14" s="19"/>
+      <c r="G14" s="15">
         <v>3</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>58</v>
+      <c r="H14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>75</v>
+      <c r="M14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1238,7 +1226,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1248,19 +1236,19 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18">
+      <c r="F15" s="19"/>
+      <c r="G15" s="15">
         <v>4</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1271,7 +1259,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -1281,22 +1269,22 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18">
+      <c r="F16" s="19"/>
+      <c r="G16" s="15">
         <v>5</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>63</v>
+      <c r="H16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="14"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1307,7 +1295,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1317,18 +1305,18 @@
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18">
+      <c r="F17" s="19"/>
+      <c r="G17" s="15">
         <v>6</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="14"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1338,8 +1326,8 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1349,22 +1337,22 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18">
+      <c r="F18" s="19"/>
+      <c r="G18" s="15">
         <v>7</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>64</v>
+      <c r="H18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="16"/>
+      <c r="M18" s="14"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1375,7 +1363,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1385,18 +1373,18 @@
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="F19" s="19"/>
+      <c r="G19" s="15">
         <v>8</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="14"/>
       <c r="N19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1424,7 +1412,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1436,20 +1424,20 @@
       <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="16">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>33</v>
+      <c r="H21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="14">
+      <c r="K21" s="16">
         <v>21</v>
       </c>
       <c r="L21" s="2">
@@ -1466,7 +1454,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1476,14 +1464,14 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="2">
         <v>2</v>
       </c>
@@ -1498,7 +1486,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1508,18 +1496,18 @@
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="2">
         <v>3</v>
       </c>
@@ -1535,7 +1523,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1545,14 +1533,14 @@
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="2">
         <v>4</v>
       </c>
@@ -1568,7 +1556,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1578,18 +1566,18 @@
       <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>65</v>
+      <c r="H25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="2">
         <v>5</v>
       </c>
@@ -1605,7 +1593,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -1615,14 +1603,14 @@
       <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="2">
         <v>6</v>
       </c>
@@ -1637,25 +1625,27 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>66</v>
+      <c r="H27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="2">
         <v>7</v>
       </c>
@@ -1671,20 +1661,22 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="2">
         <v>8</v>
       </c>
@@ -1715,28 +1707,30 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="16">
         <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="F30" s="14">
+      <c r="F30" s="16">
         <v>18</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>59</v>
+      <c r="H30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="14">
+      <c r="K30" s="16">
         <v>22</v>
       </c>
       <c r="L30" s="2">
@@ -1753,20 +1747,22 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="2">
         <v>2</v>
       </c>
@@ -1781,24 +1777,28 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="F32" s="14"/>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>67</v>
+      <c r="H32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="2">
         <v>3</v>
       </c>
@@ -1813,19 +1813,21 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="K33" s="14"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="2">
         <v>4</v>
       </c>
@@ -1838,23 +1840,25 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="14"/>
+      <c r="H34" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="16"/>
       <c r="L34" s="2">
         <v>5</v>
       </c>
@@ -1867,19 +1871,21 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>12</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="K35" s="14"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="2">
         <v>6</v>
       </c>
@@ -1892,23 +1898,25 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>13</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="14"/>
+      <c r="H36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="16"/>
       <c r="L36" s="2">
         <v>7</v>
       </c>
@@ -1921,19 +1929,21 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="2">
         <v>8</v>
       </c>
@@ -1941,6 +1951,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="K30:K37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="K12:K19"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N9:N10"/>
@@ -1957,46 +2007,6 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="K30:K37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Obwód</t>
   </si>
@@ -115,115 +115,118 @@
     <t>O</t>
   </si>
   <si>
+    <t>rol_010</t>
+  </si>
+  <si>
+    <t>rol_022</t>
+  </si>
+  <si>
+    <t>Łazienka Duża</t>
+  </si>
+  <si>
+    <t>rol_027</t>
+  </si>
+  <si>
+    <t>Sypialnia Goście</t>
+  </si>
+  <si>
+    <t>rol_021</t>
+  </si>
+  <si>
+    <t>rol_028</t>
+  </si>
+  <si>
+    <t>Łazienka Mała</t>
+  </si>
+  <si>
+    <t>rol_026</t>
+  </si>
+  <si>
+    <t>rol_011</t>
+  </si>
+  <si>
+    <t>Siłownia</t>
+  </si>
+  <si>
+    <t>rol_007</t>
+  </si>
+  <si>
+    <t>Salon</t>
+  </si>
+  <si>
+    <t>rol_009</t>
+  </si>
+  <si>
+    <t>rol_023</t>
+  </si>
+  <si>
+    <t>Sypialnia Duża</t>
+  </si>
+  <si>
+    <t>rol_004</t>
+  </si>
+  <si>
+    <t>Kuchnia</t>
+  </si>
+  <si>
+    <t>rol_012</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>rol_029</t>
+  </si>
+  <si>
+    <t>Garderoba</t>
+  </si>
+  <si>
+    <t>rol_024</t>
+  </si>
+  <si>
+    <t>Sypialnia Dzieci</t>
+  </si>
+  <si>
+    <t>Ekran</t>
+  </si>
+  <si>
+    <t>rol_005</t>
+  </si>
+  <si>
+    <t>Jadalnia</t>
+  </si>
+  <si>
+    <t>rol_006</t>
+  </si>
+  <si>
+    <t>rol_003</t>
+  </si>
+  <si>
+    <t>podłogowe</t>
+  </si>
+  <si>
+    <t>? Mała Łazienka ?</t>
+  </si>
+  <si>
+    <t>rol_008</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>rol_001</t>
+  </si>
+  <si>
+    <t>Gabinet</t>
+  </si>
+  <si>
+    <t>rol_025</t>
+  </si>
+  <si>
+    <t>rol_030</t>
+  </si>
+  <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>rol_B</t>
-  </si>
-  <si>
-    <t>rol_F</t>
-  </si>
-  <si>
-    <t>rol_J</t>
-  </si>
-  <si>
-    <t>rol_O</t>
-  </si>
-  <si>
-    <t>rol_010</t>
-  </si>
-  <si>
-    <t>rol_022</t>
-  </si>
-  <si>
-    <t>Łazienka Duża</t>
-  </si>
-  <si>
-    <t>rol_027</t>
-  </si>
-  <si>
-    <t>Sypialnia Goście</t>
-  </si>
-  <si>
-    <t>rol_021</t>
-  </si>
-  <si>
-    <t>??? (Wywala S-kę)</t>
-  </si>
-  <si>
-    <t>rol_028</t>
-  </si>
-  <si>
-    <t>Łazienka Mała</t>
-  </si>
-  <si>
-    <t>rol_026</t>
-  </si>
-  <si>
-    <t>rol_011</t>
-  </si>
-  <si>
-    <t>Siłownia</t>
-  </si>
-  <si>
-    <t>rol_007</t>
-  </si>
-  <si>
-    <t>Salon</t>
-  </si>
-  <si>
-    <t>rol_009</t>
-  </si>
-  <si>
-    <t>rol_023</t>
-  </si>
-  <si>
-    <t>Sypialnia Duża</t>
-  </si>
-  <si>
-    <t>rol_004</t>
-  </si>
-  <si>
-    <t>Kuchnia</t>
-  </si>
-  <si>
-    <t>rol_012</t>
-  </si>
-  <si>
-    <t>SPA</t>
-  </si>
-  <si>
-    <t>rol_029</t>
-  </si>
-  <si>
-    <t>Garderoba</t>
-  </si>
-  <si>
-    <t>rol_024</t>
-  </si>
-  <si>
-    <t>Sypialnia Dzieci</t>
-  </si>
-  <si>
-    <t>Ekran</t>
-  </si>
-  <si>
-    <t>rol_005</t>
-  </si>
-  <si>
-    <t>Jadalnia</t>
-  </si>
-  <si>
-    <t>rol_006</t>
-  </si>
-  <si>
-    <t>rol_003</t>
-  </si>
-  <si>
-    <t>podłogowe</t>
-  </si>
-  <si>
-    <t>? Mała Łazienka ?</t>
   </si>
 </sst>
 </file>
@@ -358,23 +361,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +788,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -797,30 +800,30 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>15</v>
       </c>
       <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>47</v>
+      <c r="H3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="16">
+      <c r="K3" s="17">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>58</v>
+      <c r="M3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -832,7 +835,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -842,19 +845,19 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -865,7 +868,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -875,26 +878,26 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>31</v>
+      <c r="H5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -906,7 +909,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -916,14 +919,14 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
@@ -939,7 +942,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -949,26 +952,26 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="15">
         <v>5</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>49</v>
+      <c r="M7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -980,7 +983,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -990,19 +993,19 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="15">
         <v>6</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1013,7 +1016,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1021,28 +1024,28 @@
         <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="15">
         <v>7</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>40</v>
+      <c r="H9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>63</v>
+      <c r="M9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1054,7 +1057,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1064,19 +1067,19 @@
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="15">
         <v>8</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1105,7 +1108,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1117,30 +1120,30 @@
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>16</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>38</v>
+      <c r="H12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="16">
+      <c r="K12" s="17">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>63</v>
+      <c r="M12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1152,7 +1155,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1162,19 +1165,19 @@
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="15">
         <v>2</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1185,7 +1188,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1195,26 +1198,26 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="15">
         <v>3</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>42</v>
+      <c r="H14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1226,7 +1229,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1236,14 +1239,14 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="15">
         <v>4</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
@@ -1259,7 +1262,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -1269,22 +1272,27 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="15">
         <v>5</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>44</v>
+      <c r="H16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="16">
+        <v>57</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1295,7 +1303,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1305,18 +1313,23 @@
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="15">
         <v>6</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="14"/>
+      <c r="M17" s="16">
+        <v>58</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1327,7 +1340,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1337,18 +1350,18 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="15">
         <v>7</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>40</v>
+      <c r="H18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
@@ -1363,7 +1376,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1373,14 +1386,14 @@
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="15">
         <v>8</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
@@ -1412,7 +1425,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1424,20 +1437,20 @@
       <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="17">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>47</v>
+      <c r="H21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="16">
+      <c r="K21" s="17">
         <v>21</v>
       </c>
       <c r="L21" s="2">
@@ -1454,7 +1467,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1464,14 +1477,14 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="2">
         <v>2</v>
       </c>
@@ -1486,7 +1499,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1496,18 +1509,18 @@
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>31</v>
+      <c r="H23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2">
         <v>3</v>
       </c>
@@ -1523,7 +1536,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1533,14 +1546,14 @@
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="2">
         <v>4</v>
       </c>
@@ -1556,7 +1569,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1566,18 +1579,18 @@
       <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>49</v>
+      <c r="H25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2">
         <v>5</v>
       </c>
@@ -1593,7 +1606,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -1603,14 +1616,14 @@
       <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="2">
         <v>6</v>
       </c>
@@ -1626,7 +1639,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -1634,18 +1647,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>49</v>
+      <c r="H27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2">
         <v>7</v>
       </c>
@@ -1661,7 +1674,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1669,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="2">
         <v>8</v>
       </c>
@@ -1707,7 +1720,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="17">
         <v>14</v>
       </c>
       <c r="B30" s="2">
@@ -1717,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="F30" s="16">
+      <c r="F30" s="17">
         <v>18</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>52</v>
+      <c r="H30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="16">
+      <c r="K30" s="17">
         <v>22</v>
       </c>
       <c r="L30" s="2">
@@ -1747,7 +1760,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -1755,14 +1768,14 @@
         <v>7</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="16"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="2">
         <v>2</v>
       </c>
@@ -1777,7 +1790,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -1785,20 +1798,20 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>54</v>
+      <c r="H32" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="2">
         <v>3</v>
       </c>
@@ -1813,7 +1826,7 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -1821,13 +1834,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="K33" s="16"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="2">
         <v>4</v>
       </c>
@@ -1840,7 +1853,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
@@ -1848,17 +1861,17 @@
         <v>11</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="16"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K34" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="K34" s="17"/>
       <c r="L34" s="2">
         <v>5</v>
       </c>
@@ -1871,7 +1884,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
@@ -1879,13 +1892,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="2">
         <v>6</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
-      <c r="K35" s="16"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="2">
         <v>6</v>
       </c>
@@ -1898,7 +1911,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
@@ -1906,17 +1919,17 @@
         <v>13</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="F36" s="16"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="16"/>
+      <c r="H36" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="17"/>
       <c r="L36" s="2">
         <v>7</v>
       </c>
@@ -1929,7 +1942,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
@@ -1937,13 +1950,13 @@
         <v>5</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="F37" s="16"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="17"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="2">
         <v>8</v>
       </c>
@@ -1951,6 +1964,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="K30:K37"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="F3:F10"/>
@@ -1967,46 +2020,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Obwód</t>
   </si>
@@ -34,15 +34,9 @@
     <t>niewykorzystane</t>
   </si>
   <si>
-    <t>usunięte</t>
-  </si>
-  <si>
     <t>niezaprogramowane (nowe)</t>
   </si>
   <si>
-    <t>spięte programowo (ten sam obwód, różne kanały)</t>
-  </si>
-  <si>
     <t>Kanał</t>
   </si>
   <si>
@@ -223,10 +217,13 @@
     <t>rol_025</t>
   </si>
   <si>
-    <t>rol_030</t>
-  </si>
-  <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Wcześniej rol_030</t>
+  </si>
+  <si>
+    <t>USTERKA</t>
   </si>
 </sst>
 </file>
@@ -258,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +292,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,9 +343,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +352,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,10 +370,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,41 +723,41 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="1"/>
@@ -798,19 +792,19 @@
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="18">
         <v>15</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>1</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="17">
@@ -820,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -843,10 +837,10 @@
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>2</v>
       </c>
       <c r="H4" s="19"/>
@@ -876,28 +870,28 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>3</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="17"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>54</v>
+      <c r="M5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -917,10 +911,10 @@
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>4</v>
       </c>
       <c r="H6" s="19"/>
@@ -930,8 +924,8 @@
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -950,17 +944,17 @@
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>5</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="17"/>
@@ -968,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -991,10 +985,10 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>6</v>
       </c>
       <c r="H8" s="20"/>
@@ -1024,17 +1018,17 @@
         <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>7</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="17"/>
@@ -1042,10 +1036,10 @@
         <v>7</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1065,10 +1059,10 @@
         <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>8</v>
       </c>
       <c r="H10" s="19"/>
@@ -1092,8 +1086,8 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -1118,19 +1112,19 @@
         <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="18">
         <v>16</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>1</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="17">
@@ -1140,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1163,10 +1157,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>2</v>
       </c>
       <c r="H13" s="19"/>
@@ -1196,28 +1190,28 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>3</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="17"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>48</v>
+      <c r="M14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1237,21 +1231,21 @@
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>4</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="1"/>
       <c r="K15" s="17"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1270,28 +1264,28 @@
         <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>5</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="17"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>57</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1311,10 +1305,10 @@
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>6</v>
       </c>
       <c r="H17" s="19"/>
@@ -1324,11 +1318,11 @@
       <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>58</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
@@ -1348,24 +1342,24 @@
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>7</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="17"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="13"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1384,10 +1378,10 @@
         <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>8</v>
       </c>
       <c r="H19" s="19"/>
@@ -1397,7 +1391,7 @@
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="14"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1435,7 +1429,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="17">
         <v>17</v>
@@ -1444,18 +1438,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="17">
-        <v>21</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
+      <c r="K21" s="23"/>
       <c r="M21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1475,7 +1464,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="2">
@@ -1484,10 +1473,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="2">
-        <v>2</v>
-      </c>
+      <c r="K22" s="23"/>
       <c r="M22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1507,23 +1493,20 @@
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="2">
-        <v>3</v>
-      </c>
+      <c r="K23" s="23"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="P23" s="1"/>
@@ -1544,7 +1527,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="2">
@@ -1553,10 +1536,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="2">
-        <v>4</v>
-      </c>
+      <c r="K24" s="23"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
@@ -1577,23 +1557,20 @@
         <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
+      <c r="K25" s="23"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="P25" s="1"/>
@@ -1614,7 +1591,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="2">
@@ -1623,10 +1600,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="2">
-        <v>6</v>
-      </c>
+      <c r="K26" s="23"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="P26" s="1"/>
@@ -1652,16 +1626,13 @@
         <v>7</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="2">
-        <v>7</v>
-      </c>
+      <c r="K27" s="23"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="P27" s="1"/>
@@ -1689,10 +1660,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="2">
-        <v>8</v>
-      </c>
+      <c r="K28" s="23"/>
       <c r="M28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1737,18 +1705,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="17">
-        <v>22</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
+      <c r="K30" s="23"/>
       <c r="M30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1775,10 +1738,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="2">
-        <v>2</v>
-      </c>
+      <c r="K31" s="23"/>
       <c r="M31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1798,23 +1758,20 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="2">
-        <v>3</v>
-      </c>
+      <c r="K32" s="23"/>
       <c r="M32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -1840,10 +1797,7 @@
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="2">
-        <v>4</v>
-      </c>
+      <c r="K33" s="23"/>
       <c r="M33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -1865,16 +1819,13 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="2">
-        <v>5</v>
-      </c>
+      <c r="H34" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="23"/>
       <c r="M34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -1896,12 +1847,9 @@
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="2">
-        <v>6</v>
-      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="K35" s="23"/>
       <c r="M35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -1924,15 +1872,12 @@
         <v>7</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="2">
-        <v>7</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K36" s="23"/>
       <c r="M36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -1956,14 +1901,11 @@
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="2">
-        <v>8</v>
-      </c>
+      <c r="K37" s="23"/>
       <c r="M37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="54">
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N9:N10"/>
@@ -2004,7 +1946,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="K30:K37"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="F12:F19"/>
@@ -2015,7 +1956,6 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="K3:K10"/>
     <mergeCell ref="K12:K19"/>
-    <mergeCell ref="K21:K28"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
@@ -2031,7 +1971,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2061,13 +2001,11 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Obwód</t>
   </si>
@@ -64,9 +64,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>pralnia</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -76,21 +73,12 @@
     <t>U</t>
   </si>
   <si>
-    <t>siłownia sufit</t>
-  </si>
-  <si>
-    <t>siłownia kinkiet</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>garaż</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -196,18 +184,9 @@
     <t>rol_003</t>
   </si>
   <si>
-    <t>podłogowe</t>
-  </si>
-  <si>
-    <t>? Mała Łazienka ?</t>
-  </si>
-  <si>
     <t>rol_008</t>
   </si>
   <si>
-    <t>WC</t>
-  </si>
-  <si>
     <t>rol_001</t>
   </si>
   <si>
@@ -217,13 +196,34 @@
     <t>rol_025</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Wcześniej rol_030</t>
-  </si>
-  <si>
     <t>USTERKA</t>
+  </si>
+  <si>
+    <t>gn_101</t>
+  </si>
+  <si>
+    <t>gn_102</t>
+  </si>
+  <si>
+    <t>Pralnia</t>
+  </si>
+  <si>
+    <t>Nocne - podłogowe</t>
+  </si>
+  <si>
+    <t>Garaż</t>
+  </si>
+  <si>
+    <t>Kotłownia</t>
+  </si>
+  <si>
+    <t>SPA WC</t>
+  </si>
+  <si>
+    <t>Pom. Gosp.</t>
+  </si>
+  <si>
+    <t>WC Goście</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,9 +343,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -358,26 +355,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +794,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="22">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -794,30 +806,30 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="28">
         <v>15</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>39</v>
+      <c r="H3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="17">
+      <c r="K3" s="22">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>50</v>
+      <c r="M3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -829,7 +841,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -839,19 +851,19 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="14">
+      <c r="F4" s="28"/>
+      <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -862,7 +874,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -872,26 +884,26 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="14">
+      <c r="F5" s="28"/>
+      <c r="G5" s="13">
         <v>3</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>52</v>
+      <c r="H5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>52</v>
+      <c r="M5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -903,7 +915,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -913,19 +925,19 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="14">
+      <c r="F6" s="28"/>
+      <c r="G6" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -936,7 +948,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -946,26 +958,26 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="14">
+      <c r="F7" s="28"/>
+      <c r="G7" s="13">
         <v>5</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>31</v>
+      <c r="H7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>41</v>
+      <c r="M7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -977,7 +989,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -987,19 +999,19 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="14">
+      <c r="F8" s="28"/>
+      <c r="G8" s="13">
         <v>6</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1010,7 +1022,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1018,28 +1030,28 @@
         <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="14">
+        <v>62</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="13">
         <v>7</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>33</v>
+      <c r="H9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>55</v>
+      <c r="M9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1051,29 +1063,29 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>73</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="14">
+      <c r="D10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="13">
         <v>8</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1086,8 +1098,8 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -1102,7 +1114,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="22">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1112,32 +1124,32 @@
         <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="18">
+        <v>14</v>
+      </c>
+      <c r="F12" s="28">
         <v>16</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>31</v>
+      <c r="H12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="17">
+      <c r="K12" s="22">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>55</v>
+      <c r="M12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1149,7 +1161,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1157,21 +1169,21 @@
         <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="14">
+        <v>15</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1182,7 +1194,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1190,28 +1202,28 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="14">
+        <v>16</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>41</v>
+      <c r="H14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>46</v>
+      <c r="M14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1223,7 +1235,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1231,21 +1243,21 @@
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="14">
+        <v>35</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="13">
         <v>4</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1256,36 +1268,36 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="14">
+      <c r="D16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="13">
         <v>5</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>36</v>
+      <c r="H16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>57</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1297,7 +1309,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1305,24 +1317,24 @@
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="14">
+        <v>17</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="13">
         <v>6</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>58</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
@@ -1334,7 +1346,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1342,24 +1354,25 @@
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="14">
+        <v>18</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="13">
         <v>7</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="I18" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="13"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1370,7 +1383,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1378,21 +1391,21 @@
         <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14">
+        <v>63</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="13">
         <v>8</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1419,7 +1432,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="22">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1429,23 +1442,33 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="17">
+        <v>19</v>
+      </c>
+      <c r="F21" s="22">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>39</v>
+      <c r="H21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="23"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="22">
+        <v>21</v>
+      </c>
+      <c r="L21" s="16">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1456,7 +1479,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1464,17 +1487,25 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="23"/>
-      <c r="M22" s="1"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="16">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1485,7 +1516,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1493,22 +1524,29 @@
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>63</v>
+      <c r="H23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="23"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="16">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1519,7 +1557,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1527,18 +1565,25 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="23"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="16">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>15</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1549,7 +1594,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1557,22 +1602,29 @@
         <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>41</v>
+      <c r="H25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="23"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="16">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>16</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1583,7 +1635,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -1591,18 +1643,25 @@
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="23"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="16">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>17</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1613,7 +1672,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -1621,20 +1680,27 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>41</v>
+      <c r="H27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="23"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="16">
+        <v>7</v>
+      </c>
+      <c r="M27" s="1">
+        <v>18</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1645,7 +1711,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1653,15 +1719,23 @@
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="23"/>
-      <c r="M28" s="1"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="16">
+        <v>8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>19</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1688,7 +1762,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="22">
         <v>14</v>
       </c>
       <c r="B30" s="2">
@@ -1698,21 +1772,31 @@
         <v>6</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="F30" s="17">
+      <c r="F30" s="22">
         <v>18</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>44</v>
+      <c r="H30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="23"/>
-      <c r="M30" s="1"/>
+      <c r="K30" s="22">
+        <v>22</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>76</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1723,7 +1807,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -1731,15 +1815,23 @@
         <v>7</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="23"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="16">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>77</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1750,29 +1842,31 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>46</v>
+      <c r="H32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="23"/>
-      <c r="M32" s="1"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="16">
+        <v>3</v>
+      </c>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1783,7 +1877,7 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -1791,14 +1885,22 @@
         <v>10</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="K33" s="23"/>
-      <c r="M33" s="1"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="16">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>79</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -1807,7 +1909,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
@@ -1815,18 +1917,22 @@
         <v>11</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="16">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>80</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="23"/>
-      <c r="M34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -1835,7 +1941,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
@@ -1843,14 +1949,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="K35" s="23"/>
-      <c r="M35" s="1"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="16">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1">
+        <v>81</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -1859,7 +1973,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
@@ -1867,18 +1981,26 @@
         <v>13</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="23"/>
-      <c r="M36" s="1"/>
+      <c r="H36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="16">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -1887,7 +2009,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
@@ -1895,17 +2017,65 @@
         <v>5</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="17"/>
-      <c r="K37" s="23"/>
-      <c r="M37" s="1"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="16">
+        <v>8</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="K30:K37"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="K12:K19"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N9:N10"/>
@@ -1922,44 +2092,6 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2001,11 +2133,11 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Obwód</t>
   </si>
@@ -46,57 +46,6 @@
     <t>Komentarz</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>rol_010</t>
   </si>
   <si>
@@ -224,6 +173,57 @@
   </si>
   <si>
     <t>WC Goście</t>
+  </si>
+  <si>
+    <t>Wiatrołap - A</t>
+  </si>
+  <si>
+    <t>Wiatołap - B</t>
+  </si>
+  <si>
+    <t>Gabinet - C</t>
+  </si>
+  <si>
+    <t>Gabinet - E</t>
+  </si>
+  <si>
+    <t>Wejćie - I</t>
+  </si>
+  <si>
+    <t>Salon - J</t>
+  </si>
+  <si>
+    <t>Korytarz - R</t>
+  </si>
+  <si>
+    <t>Salon - S</t>
+  </si>
+  <si>
+    <t>Salon - U</t>
+  </si>
+  <si>
+    <t>Salon - T</t>
+  </si>
+  <si>
+    <t>Gabinet - F</t>
+  </si>
+  <si>
+    <t>Kuchnia - M</t>
+  </si>
+  <si>
+    <t>Kuchnia - L</t>
+  </si>
+  <si>
+    <t>Spiżarnia - K</t>
+  </si>
+  <si>
+    <t>Jadalnia - N</t>
+  </si>
+  <si>
+    <t>Jadalnia - P</t>
+  </si>
+  <si>
+    <t>Kuchnia - O</t>
   </si>
 </sst>
 </file>
@@ -374,22 +374,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,19 +804,19 @@
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="28">
+        <v>51</v>
+      </c>
+      <c r="F3" s="26">
         <v>15</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>35</v>
+      <c r="H3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="22">
@@ -825,11 +825,11 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>46</v>
+      <c r="M3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -849,21 +849,21 @@
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="F4" s="26"/>
       <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -882,28 +882,28 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="F5" s="26"/>
       <c r="G5" s="13">
         <v>3</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>48</v>
+      <c r="H5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="22"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>48</v>
+      <c r="M5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -923,21 +923,21 @@
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="F6" s="26"/>
       <c r="G6" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="1"/>
       <c r="K6" s="22"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -956,28 +956,28 @@
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="F7" s="26"/>
       <c r="G7" s="13">
         <v>5</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>27</v>
+      <c r="H7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="22"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>37</v>
+      <c r="M7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -997,21 +997,21 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="F8" s="26"/>
       <c r="G8" s="13">
         <v>6</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="1"/>
       <c r="K8" s="22"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1030,28 +1030,28 @@
         <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="26"/>
       <c r="G9" s="13">
         <v>7</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>29</v>
+      <c r="H9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="22"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>51</v>
+      <c r="M9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1071,21 +1071,21 @@
         <v>73</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="26"/>
       <c r="G10" s="13">
         <v>8</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="1"/>
       <c r="K10" s="22"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1124,19 +1124,19 @@
         <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="28">
+        <v>57</v>
+      </c>
+      <c r="F12" s="26">
         <v>16</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>27</v>
+      <c r="H12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="22">
@@ -1145,11 +1145,11 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>51</v>
+      <c r="M12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1169,21 +1169,21 @@
         <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="F13" s="26"/>
       <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="1"/>
       <c r="K13" s="22"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1202,28 +1202,28 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="F14" s="26"/>
       <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>37</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="22"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>42</v>
+      <c r="M14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1243,21 +1243,21 @@
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="28"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="26"/>
       <c r="G15" s="13">
         <v>4</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="1"/>
       <c r="K15" s="22"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1276,17 +1276,17 @@
         <v>72</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="28"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="26"/>
       <c r="G16" s="13">
         <v>5</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>32</v>
+      <c r="H16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="22"/>
@@ -1297,7 +1297,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1317,14 +1317,14 @@
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="26"/>
       <c r="G17" s="13">
         <v>6</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="1"/>
       <c r="K17" s="22"/>
       <c r="L17" s="2">
@@ -1334,7 +1334,7 @@
         <v>58</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
@@ -1354,17 +1354,17 @@
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="F18" s="26"/>
       <c r="G18" s="13">
         <v>7</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>29</v>
+      <c r="H18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="22"/>
@@ -1391,14 +1391,14 @@
         <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="28"/>
+        <v>46</v>
+      </c>
+      <c r="F19" s="26"/>
       <c r="G19" s="13">
         <v>8</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="1"/>
       <c r="K19" s="22"/>
       <c r="L19" s="2">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F21" s="22">
         <v>17</v>
@@ -1450,11 +1450,11 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>35</v>
+      <c r="H21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="22">
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1487,14 +1487,14 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="1"/>
       <c r="K22" s="22"/>
       <c r="L22" s="16">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1524,17 +1524,17 @@
         <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>56</v>
+      <c r="H23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="22"/>
@@ -1545,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1565,14 +1565,14 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="1"/>
       <c r="K24" s="22"/>
       <c r="L24" s="16">
@@ -1582,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1602,17 +1602,17 @@
         <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>37</v>
+      <c r="H25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="22"/>
@@ -1623,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1643,14 +1643,14 @@
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="1"/>
       <c r="K26" s="22"/>
       <c r="L26" s="16">
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1684,11 +1684,11 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>37</v>
+      <c r="H27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="22"/>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1723,8 +1723,8 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="1"/>
       <c r="K28" s="22"/>
       <c r="L28" s="16">
@@ -1734,7 +1734,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1771,18 +1771,20 @@
       <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="22">
         <v>18</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>40</v>
+      <c r="H30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="22">
@@ -1795,7 +1797,7 @@
         <v>76</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1814,13 +1816,15 @@
       <c r="C31" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F31" s="22"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="1"/>
       <c r="K31" s="22"/>
       <c r="L31" s="16">
@@ -1830,7 +1834,7 @@
         <v>77</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1849,16 +1853,18 @@
       <c r="C32" s="1">
         <v>9</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="22"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>42</v>
+      <c r="H32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="22"/>
@@ -1884,13 +1890,15 @@
       <c r="C33" s="1">
         <v>10</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F33" s="22"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
       <c r="K33" s="22"/>
       <c r="L33" s="16">
         <v>4</v>
@@ -1899,7 +1907,7 @@
         <v>79</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -1916,13 +1924,15 @@
       <c r="C34" s="1">
         <v>11</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="K34" s="22"/>
       <c r="L34" s="16">
         <v>5</v>
@@ -1931,7 +1941,7 @@
         <v>80</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -1948,13 +1958,15 @@
       <c r="C35" s="1">
         <v>12</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F35" s="22"/>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="K35" s="22"/>
       <c r="L35" s="16">
         <v>6</v>
@@ -1963,7 +1975,7 @@
         <v>81</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -1980,26 +1992,28 @@
       <c r="C36" s="1">
         <v>13</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="H36" s="23" t="s">
-        <v>43</v>
+      <c r="H36" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="16">
         <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2016,26 +2030,68 @@
       <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F37" s="22"/>
       <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="23"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="16">
         <v>8</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
     <mergeCell ref="K21:K28"/>
     <mergeCell ref="K30:K37"/>
     <mergeCell ref="K3:K10"/>
@@ -2052,46 +2108,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2133,7 +2149,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Obwód</t>
   </si>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t>Kuchnia - O</t>
+  </si>
+  <si>
+    <t>Przed wejściem (zew.)</t>
+  </si>
+  <si>
+    <t>Elewacja (zew.)</t>
+  </si>
+  <si>
+    <t>Brama Lewa</t>
+  </si>
+  <si>
+    <t>Brama Prawa</t>
+  </si>
+  <si>
+    <t>Wjazd</t>
+  </si>
+  <si>
+    <t>Wiatrołap</t>
   </si>
 </sst>
 </file>
@@ -305,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,41 +373,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +803,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -806,7 +815,7 @@
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>15</v>
       </c>
       <c r="G3" s="13">
@@ -815,20 +824,20 @@
       <c r="H3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="1"/>
@@ -841,7 +850,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -851,19 +860,19 @@
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="13">
         <v>2</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="22"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -874,7 +883,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -884,7 +893,7 @@
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="13">
         <v>3</v>
       </c>
@@ -895,14 +904,14 @@
         <v>31</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="1"/>
@@ -915,7 +924,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -925,19 +934,19 @@
       <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="13">
         <v>4</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -948,7 +957,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -958,7 +967,7 @@
       <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="13">
         <v>5</v>
       </c>
@@ -969,14 +978,14 @@
         <v>10</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="22"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="1"/>
@@ -989,7 +998,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -999,19 +1008,19 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="13">
         <v>6</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1022,7 +1031,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1032,7 +1041,7 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="13">
         <v>7</v>
       </c>
@@ -1043,14 +1052,14 @@
         <v>12</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="21" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="1"/>
@@ -1063,29 +1072,29 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>73</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="13">
         <v>8</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1114,7 +1123,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1126,7 +1135,7 @@
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>16</v>
       </c>
       <c r="G12" s="13">
@@ -1139,16 +1148,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="P12" s="1"/>
@@ -1161,7 +1170,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1171,19 +1180,19 @@
       <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="13">
         <v>2</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1194,7 +1203,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1204,25 +1213,25 @@
       <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="13">
         <v>3</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="1"/>
@@ -1235,7 +1244,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1245,19 +1254,19 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="13">
         <v>4</v>
       </c>
       <c r="H15" s="24"/>
-      <c r="I15" s="28"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1268,17 +1277,17 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>72</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="13">
         <v>5</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
@@ -1309,7 +1318,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1319,14 +1328,14 @@
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="13">
         <v>6</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
@@ -1346,7 +1355,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1356,7 +1365,7 @@
       <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="13">
         <v>7</v>
       </c>
@@ -1367,12 +1376,16 @@
         <v>12</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="M18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1383,7 +1396,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1393,19 +1406,23 @@
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="13">
         <v>8</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="22"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1432,7 +1449,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="20">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1444,20 +1461,20 @@
       <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>21</v>
       </c>
       <c r="L21" s="16">
@@ -1479,7 +1496,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1489,21 +1506,21 @@
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="16">
         <v>2</v>
       </c>
       <c r="M22" s="1">
         <v>4</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="P22" s="1"/>
@@ -1516,7 +1533,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1526,18 +1543,18 @@
       <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="16">
         <v>3</v>
       </c>
@@ -1557,7 +1574,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1567,21 +1584,21 @@
       <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="16">
         <v>4</v>
       </c>
       <c r="M24" s="1">
         <v>15</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P24" s="1"/>
@@ -1594,7 +1611,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1604,25 +1621,25 @@
       <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="16">
         <v>5</v>
       </c>
       <c r="M25" s="1">
         <v>16</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P25" s="1"/>
@@ -1635,7 +1652,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -1645,21 +1662,21 @@
       <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="16">
         <v>6</v>
       </c>
       <c r="M26" s="1">
         <v>17</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P26" s="1"/>
@@ -1672,7 +1689,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -1680,18 +1697,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="16">
         <v>7</v>
       </c>
@@ -1711,7 +1728,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1719,21 +1736,21 @@
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="16">
         <v>8</v>
       </c>
       <c r="M28" s="1">
         <v>19</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="1"/>
@@ -1762,7 +1779,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="20">
         <v>14</v>
       </c>
       <c r="B30" s="2">
@@ -1774,20 +1791,20 @@
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="20">
         <v>18</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="22">
+      <c r="K30" s="20">
         <v>22</v>
       </c>
       <c r="L30" s="16">
@@ -1809,7 +1826,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -1819,14 +1836,14 @@
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="2">
+      <c r="F31" s="20"/>
+      <c r="G31" s="19">
         <v>2</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="22"/>
+      <c r="K31" s="20"/>
       <c r="L31" s="16">
         <v>2</v>
       </c>
@@ -1846,7 +1863,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -1856,23 +1873,27 @@
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="2">
+      <c r="F32" s="20"/>
+      <c r="G32" s="19">
         <v>3</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="22"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="16">
         <v>3</v>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
+      <c r="M32" s="9">
+        <v>54</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1883,7 +1904,7 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -1893,13 +1914,13 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="2">
+      <c r="F33" s="20"/>
+      <c r="G33" s="19">
         <v>4</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="K33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="16">
         <v>4</v>
       </c>
@@ -1917,7 +1938,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
@@ -1927,20 +1948,24 @@
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="2">
+      <c r="F34" s="20"/>
+      <c r="G34" s="19">
         <v>5</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="K34" s="22"/>
+      <c r="H34" s="9">
+        <v>82</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="20"/>
       <c r="L34" s="16">
         <v>5</v>
       </c>
       <c r="M34" s="1">
         <v>80</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="17" t="s">
         <v>48</v>
       </c>
       <c r="R34" s="1"/>
@@ -1951,7 +1976,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
@@ -1961,13 +1986,17 @@
       <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="2">
+      <c r="F35" s="20"/>
+      <c r="G35" s="19">
         <v>6</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="K35" s="22"/>
+      <c r="H35" s="9">
+        <v>83</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="20"/>
       <c r="L35" s="16">
         <v>6</v>
       </c>
@@ -1985,7 +2014,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
@@ -1995,17 +2024,17 @@
       <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="2">
+      <c r="F36" s="20"/>
+      <c r="G36" s="19">
         <v>7</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="22"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="16">
         <v>7</v>
       </c>
@@ -2023,7 +2052,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
@@ -2033,13 +2062,13 @@
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="2">
+      <c r="F37" s="20"/>
+      <c r="G37" s="19">
         <v>8</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="16">
         <v>8</v>
       </c>
@@ -2051,47 +2080,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
+  <mergeCells count="54">
     <mergeCell ref="K21:K28"/>
     <mergeCell ref="K30:K37"/>
     <mergeCell ref="K3:K10"/>
@@ -2108,6 +2097,44 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -386,19 +386,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -815,16 +815,16 @@
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>15</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1"/>
@@ -834,10 +834,10 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="1"/>
@@ -860,19 +860,19 @@
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="1"/>
       <c r="K4" s="20"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -893,14 +893,14 @@
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="13">
         <v>3</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1"/>
@@ -908,10 +908,10 @@
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="25" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="1"/>
@@ -934,19 +934,19 @@
       <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="1"/>
       <c r="K6" s="20"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -967,14 +967,14 @@
       <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="13">
         <v>5</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1"/>
@@ -982,10 +982,10 @@
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="1"/>
@@ -1008,19 +1008,19 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="13">
         <v>6</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="1"/>
       <c r="K8" s="20"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1041,14 +1041,14 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="13">
         <v>7</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1"/>
@@ -1056,10 +1056,10 @@
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="1"/>
@@ -1082,19 +1082,19 @@
       <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="13">
         <v>8</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="1"/>
       <c r="K10" s="20"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1135,16 +1135,16 @@
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>16</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
@@ -1154,10 +1154,10 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="P12" s="1"/>
@@ -1180,19 +1180,19 @@
       <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="1"/>
       <c r="K13" s="20"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1213,14 +1213,14 @@
       <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1"/>
@@ -1228,10 +1228,10 @@
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="1"/>
@@ -1254,19 +1254,19 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="13">
         <v>4</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="1"/>
       <c r="K15" s="20"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1287,14 +1287,14 @@
       <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="13">
         <v>5</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
@@ -1328,12 +1328,12 @@
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="13">
         <v>6</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="1"/>
       <c r="K17" s="20"/>
       <c r="L17" s="2">
@@ -1365,14 +1365,14 @@
       <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="13">
         <v>7</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="1"/>
@@ -1406,12 +1406,12 @@
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="13">
         <v>8</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="1"/>
       <c r="K19" s="20"/>
       <c r="L19" s="2">
@@ -1467,10 +1467,10 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="1"/>
@@ -1510,8 +1510,8 @@
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1"/>
       <c r="K22" s="20"/>
       <c r="L22" s="16">
@@ -1547,10 +1547,10 @@
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="23" t="s">
         <v>39</v>
       </c>
       <c r="J23" s="1"/>
@@ -1588,8 +1588,8 @@
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="1"/>
       <c r="K24" s="20"/>
       <c r="L24" s="16">
@@ -1625,10 +1625,10 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1"/>
@@ -1666,8 +1666,8 @@
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="1"/>
       <c r="K26" s="20"/>
       <c r="L26" s="16">
@@ -1701,10 +1701,10 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1"/>
@@ -1740,8 +1740,8 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="1"/>
       <c r="K28" s="20"/>
       <c r="L28" s="16">
@@ -1797,10 +1797,10 @@
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1"/>
@@ -1840,8 +1840,8 @@
       <c r="G31" s="19">
         <v>2</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="1"/>
       <c r="K31" s="20"/>
       <c r="L31" s="16">
@@ -1877,10 +1877,10 @@
       <c r="G32" s="19">
         <v>3</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
@@ -1918,8 +1918,8 @@
       <c r="G33" s="19">
         <v>4</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="K33" s="20"/>
       <c r="L33" s="16">
         <v>4</v>
@@ -2028,7 +2028,7 @@
       <c r="G36" s="19">
         <v>7</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="23" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="20" t="s">
@@ -2066,7 +2066,7 @@
       <c r="G37" s="19">
         <v>8</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="16">
@@ -2081,6 +2081,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
     <mergeCell ref="K21:K28"/>
     <mergeCell ref="K30:K37"/>
     <mergeCell ref="K3:K10"/>
@@ -2097,44 +2135,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,23 +382,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,7 +714,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +800,7 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="23">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -821,23 +818,23 @@
       <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="20">
+      <c r="K3" s="23">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="21" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="1"/>
@@ -850,7 +847,7 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -864,15 +861,15 @@
       <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="20"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -883,7 +880,7 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -897,21 +894,21 @@
       <c r="G5" s="13">
         <v>3</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="1"/>
@@ -924,7 +921,7 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -938,15 +935,15 @@
       <c r="G6" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="7"/>
@@ -957,7 +954,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -978,14 +975,14 @@
         <v>10</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="1"/>
@@ -998,7 +995,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1015,12 +1012,12 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1031,7 +1028,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1045,21 +1042,21 @@
       <c r="G9" s="13">
         <v>7</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="21" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="1"/>
@@ -1072,7 +1069,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1086,15 +1083,15 @@
       <c r="G10" s="13">
         <v>8</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1123,7 +1120,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="23">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1141,23 +1138,23 @@
       <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="20">
+      <c r="K12" s="23">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="P12" s="1"/>
@@ -1170,7 +1167,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1184,15 +1181,15 @@
       <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1203,7 +1200,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1220,18 +1217,18 @@
       <c r="H14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="21" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="1"/>
@@ -1244,7 +1241,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1259,14 +1256,14 @@
         <v>4</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1277,7 +1274,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -1291,14 +1288,14 @@
       <c r="G16" s="13">
         <v>5</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
@@ -1318,7 +1315,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1332,10 +1329,10 @@
       <c r="G17" s="13">
         <v>6</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
@@ -1355,7 +1352,7 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1369,21 +1366,21 @@
       <c r="G18" s="13">
         <v>7</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="20" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="1"/>
@@ -1396,7 +1393,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1410,17 +1407,17 @@
       <c r="G19" s="13">
         <v>8</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="20" t="s">
         <v>72</v>
       </c>
       <c r="P19" s="1"/>
@@ -1449,7 +1446,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="23">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1461,20 +1458,20 @@
       <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="23">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="20">
+      <c r="K21" s="23">
         <v>21</v>
       </c>
       <c r="L21" s="16">
@@ -1496,7 +1493,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1506,14 +1503,14 @@
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="16">
         <v>2</v>
       </c>
@@ -1533,7 +1530,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1543,18 +1540,18 @@
       <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="16">
         <v>3</v>
       </c>
@@ -1574,7 +1571,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1584,14 +1581,14 @@
       <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="16">
         <v>4</v>
       </c>
@@ -1611,7 +1608,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1621,18 +1618,18 @@
       <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="16">
         <v>5</v>
       </c>
@@ -1652,7 +1649,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -1662,14 +1659,14 @@
       <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="16">
         <v>6</v>
       </c>
@@ -1689,7 +1686,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -1697,18 +1694,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="16">
         <v>7</v>
       </c>
@@ -1728,7 +1725,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1736,14 +1733,14 @@
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="16">
         <v>8</v>
       </c>
@@ -1779,7 +1776,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="23">
         <v>14</v>
       </c>
       <c r="B30" s="2">
@@ -1791,20 +1788,20 @@
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="23">
         <v>18</v>
       </c>
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="20">
+      <c r="K30" s="23">
         <v>22</v>
       </c>
       <c r="L30" s="16">
@@ -1826,7 +1823,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -1836,14 +1833,14 @@
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="19">
         <v>2</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="16">
         <v>2</v>
       </c>
@@ -1863,7 +1860,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -1873,25 +1870,25 @@
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="19">
         <v>3</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="16">
         <v>3</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="20">
         <v>54</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="20" t="s">
         <v>73</v>
       </c>
       <c r="P32" s="1"/>
@@ -1904,7 +1901,7 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -1914,13 +1911,13 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="19">
         <v>4</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="16">
         <v>4</v>
       </c>
@@ -1938,7 +1935,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
@@ -1948,7 +1945,7 @@
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="19">
         <v>5</v>
       </c>
@@ -1958,7 +1955,7 @@
       <c r="I34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="20"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="16">
         <v>5</v>
       </c>
@@ -1976,7 +1973,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
@@ -1986,7 +1983,7 @@
       <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="19">
         <v>6</v>
       </c>
@@ -1996,7 +1993,7 @@
       <c r="I35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="16">
         <v>6</v>
       </c>
@@ -2014,7 +2011,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
@@ -2024,17 +2021,17 @@
       <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="19">
         <v>7</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="20"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="16">
         <v>7</v>
       </c>
@@ -2052,7 +2049,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
@@ -2062,13 +2059,13 @@
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="19">
         <v>8</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="16">
         <v>8</v>
       </c>
@@ -2081,20 +2078,26 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="M3:M4"/>
@@ -2111,30 +2114,24 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="K21:K28"/>
-    <mergeCell ref="K30:K37"/>
     <mergeCell ref="K3:K10"/>
     <mergeCell ref="K12:K19"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K30:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Obwód</t>
   </si>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,9 +337,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,6 +385,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,6 +402,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,33 +723,34 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="24.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
     <col min="8" max="9" width="24.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="2" customWidth="1"/>
     <col min="13" max="14" width="24.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="2.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="2"/>
     <col min="18" max="18" width="26" style="2" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="2"/>
+    <col min="19" max="19" width="18.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
     <col min="21" max="21" width="17.28515625" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -752,7 +762,7 @@
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -765,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -777,12 +787,20 @@
       <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="P1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="T1" s="1"/>
-      <c r="U1" s="6"/>
+      <c r="U1" s="5"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
@@ -790,17 +808,17 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="25">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -812,42 +830,46 @@
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="26">
         <v>15</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="23">
+      <c r="K3" s="25">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="P3" s="25">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>1</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -857,30 +879,32 @@
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="13">
+      <c r="F4" s="26"/>
+      <c r="G4" s="12">
         <v>2</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="23"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="21">
+        <v>2</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -890,38 +914,40 @@
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="13">
+      <c r="F5" s="26"/>
+      <c r="G5" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="1"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="21">
+        <v>3</v>
+      </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -931,30 +957,32 @@
       <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="13">
+      <c r="F6" s="26"/>
+      <c r="G6" s="12">
         <v>4</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="1"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="21">
+        <v>4</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -964,38 +992,40 @@
       <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="13">
+      <c r="F7" s="26"/>
+      <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="21">
+        <v>5</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1005,30 +1035,32 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="13">
+      <c r="F8" s="26"/>
+      <c r="G8" s="12">
         <v>6</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="21">
+        <v>6</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1038,64 +1070,68 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="13">
+      <c r="F9" s="26"/>
+      <c r="G9" s="12">
         <v>7</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="21">
+        <v>7</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>73</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="13">
+      <c r="F10" s="26"/>
+      <c r="G10" s="12">
         <v>8</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="21">
+        <v>8</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1104,23 +1140,23 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="25">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1132,42 +1168,46 @@
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="26">
         <v>16</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>1</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="23">
+      <c r="K12" s="25">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="P12" s="25">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>1</v>
+      </c>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -1177,30 +1217,32 @@
       <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="13">
+      <c r="F13" s="26"/>
+      <c r="G13" s="12">
         <v>2</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="21">
+        <v>2</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1210,38 +1252,40 @@
       <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="13">
+      <c r="F14" s="26"/>
+      <c r="G14" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="21">
+        <v>3</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1251,71 +1295,75 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="13">
+      <c r="F15" s="26"/>
+      <c r="G15" s="12">
         <v>4</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="21">
+        <v>4</v>
+      </c>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>72</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="13">
+      <c r="F16" s="26"/>
+      <c r="G16" s="12">
         <v>5</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>57</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="21">
+        <v>5</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -1325,34 +1373,36 @@
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="13">
+      <c r="F17" s="26"/>
+      <c r="G17" s="12">
         <v>6</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>58</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="21">
+        <v>6</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1362,38 +1412,40 @@
       <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="13">
+      <c r="F18" s="26"/>
+      <c r="G18" s="12">
         <v>7</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="24" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="21">
+        <v>7</v>
+      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1403,27 +1455,29 @@
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="13">
+      <c r="F19" s="26"/>
+      <c r="G19" s="12">
         <v>8</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="21">
+        <v>8</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1446,7 +1500,7 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="25">
         <v>13</v>
       </c>
       <c r="B21" s="2">
@@ -1458,23 +1512,23 @@
       <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="25">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="23">
+      <c r="K21" s="25">
         <v>21</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>1</v>
       </c>
       <c r="M21" s="1">
@@ -1493,7 +1547,7 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1503,21 +1557,21 @@
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="16">
+      <c r="K22" s="25"/>
+      <c r="L22" s="15">
         <v>2</v>
       </c>
       <c r="M22" s="1">
         <v>4</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="P22" s="1"/>
@@ -1530,7 +1584,7 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1540,19 +1594,19 @@
       <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="23" t="s">
         <v>39</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="16">
+      <c r="K23" s="25"/>
+      <c r="L23" s="15">
         <v>3</v>
       </c>
       <c r="M23" s="1">
@@ -1571,7 +1625,7 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -1581,21 +1635,21 @@
       <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="16">
+      <c r="K24" s="25"/>
+      <c r="L24" s="15">
         <v>4</v>
       </c>
       <c r="M24" s="1">
         <v>15</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="P24" s="1"/>
@@ -1608,7 +1662,7 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1618,25 +1672,25 @@
       <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="16">
+      <c r="K25" s="25"/>
+      <c r="L25" s="15">
         <v>5</v>
       </c>
       <c r="M25" s="1">
         <v>16</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="17" t="s">
         <v>12</v>
       </c>
       <c r="P25" s="1"/>
@@ -1649,7 +1703,7 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -1659,21 +1713,21 @@
       <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="16">
+      <c r="K26" s="25"/>
+      <c r="L26" s="15">
         <v>6</v>
       </c>
       <c r="M26" s="1">
         <v>17</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="17" t="s">
         <v>12</v>
       </c>
       <c r="P26" s="1"/>
@@ -1686,7 +1740,7 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -1694,19 +1748,19 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="23"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="16">
+      <c r="K27" s="25"/>
+      <c r="L27" s="15">
         <v>7</v>
       </c>
       <c r="M27" s="1">
@@ -1725,7 +1779,7 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1733,21 +1787,21 @@
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="23"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="16">
+      <c r="K28" s="25"/>
+      <c r="L28" s="15">
         <v>8</v>
       </c>
       <c r="M28" s="1">
         <v>19</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="1"/>
@@ -1776,7 +1830,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>14</v>
       </c>
       <c r="B30" s="2">
@@ -1788,23 +1842,23 @@
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="25">
         <v>18</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="23">
+      <c r="K30" s="25">
         <v>22</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>1</v>
       </c>
       <c r="M30" s="1">
@@ -1823,7 +1877,7 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -1833,15 +1887,15 @@
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19">
+      <c r="F31" s="25"/>
+      <c r="G31" s="18">
         <v>2</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="16">
+      <c r="K31" s="25"/>
+      <c r="L31" s="15">
         <v>2</v>
       </c>
       <c r="M31" s="1">
@@ -1860,7 +1914,7 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -1870,25 +1924,25 @@
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="19">
+      <c r="F32" s="25"/>
+      <c r="G32" s="18">
         <v>3</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="16">
+      <c r="K32" s="25"/>
+      <c r="L32" s="15">
         <v>3</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="19">
         <v>54</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="19" t="s">
         <v>73</v>
       </c>
       <c r="P32" s="1"/>
@@ -1901,7 +1955,7 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -1911,14 +1965,14 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="19">
+      <c r="F33" s="25"/>
+      <c r="G33" s="18">
         <v>4</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="16">
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="15">
         <v>4</v>
       </c>
       <c r="M33" s="1">
@@ -1935,7 +1989,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
@@ -1945,24 +1999,24 @@
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="19">
+      <c r="F34" s="25"/>
+      <c r="G34" s="18">
         <v>5</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>82</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="16">
+      <c r="K34" s="25"/>
+      <c r="L34" s="15">
         <v>5</v>
       </c>
       <c r="M34" s="1">
         <v>80</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>48</v>
       </c>
       <c r="R34" s="1"/>
@@ -1973,7 +2027,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
@@ -1983,18 +2037,18 @@
       <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="19">
+      <c r="F35" s="25"/>
+      <c r="G35" s="18">
         <v>6</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>83</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="16">
+      <c r="K35" s="25"/>
+      <c r="L35" s="15">
         <v>6</v>
       </c>
       <c r="M35" s="1">
@@ -2011,7 +2065,7 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
@@ -2021,18 +2075,18 @@
       <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="19">
+      <c r="F36" s="25"/>
+      <c r="G36" s="18">
         <v>7</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="16">
+      <c r="K36" s="25"/>
+      <c r="L36" s="15">
         <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -2049,7 +2103,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
@@ -2059,14 +2113,14 @@
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="19">
+      <c r="F37" s="25"/>
+      <c r="G37" s="18">
         <v>8</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="16">
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="15">
         <v>8</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -2077,27 +2131,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
+  <mergeCells count="56">
+    <mergeCell ref="P12:P19"/>
+    <mergeCell ref="P3:P10"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K30:K37"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="K12:K19"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="M3:M4"/>
@@ -2114,24 +2168,26 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K30:K37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2152,32 +2208,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Robak/doc/DIN-8SW8.xlsx
+++ b/Robak/doc/DIN-8SW8.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Robak\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7CCF19-704A-4274-A6DE-A76A7C207A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6630" windowWidth="21840" windowHeight="6210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Obwód</t>
   </si>
@@ -242,12 +248,36 @@
   </si>
   <si>
     <t>Wiatrołap</t>
+  </si>
+  <si>
+    <t>Basen</t>
+  </si>
+  <si>
+    <t>Basen (roleta)</t>
+  </si>
+  <si>
+    <t>Taras (zew.)</t>
+  </si>
+  <si>
+    <t>Podjazd (zew.)</t>
+  </si>
+  <si>
+    <t>SPA (zew.)</t>
+  </si>
+  <si>
+    <t>Drzewa (zew.)</t>
+  </si>
+  <si>
+    <t>Niski taras (zew.)</t>
+  </si>
+  <si>
+    <t>Basen (zew.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,16 +425,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,18 +748,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,16 +866,16 @@
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="28">
         <v>15</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1"/>
@@ -849,10 +885,10 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="26" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="25">
@@ -861,8 +897,12 @@
       <c r="Q3" s="21">
         <v>1</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="R3" s="23">
+        <v>84</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -879,25 +919,29 @@
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="12">
         <v>2</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="1"/>
       <c r="K4" s="25"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="21">
         <v>2</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
+      <c r="R4" s="23">
+        <v>85</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -914,14 +958,14 @@
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="27" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1"/>
@@ -929,18 +973,22 @@
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="26" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="21">
         <v>3</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
+      <c r="R5" s="23">
+        <v>86</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>78</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -957,25 +1005,29 @@
       <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="12">
         <v>4</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="1"/>
       <c r="K6" s="25"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="21">
         <v>4</v>
       </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
+      <c r="R6" s="23">
+        <v>87</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -992,14 +1044,14 @@
       <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="27" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1"/>
@@ -1007,18 +1059,22 @@
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="26" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="21">
         <v>5</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="R7" s="23">
+        <v>88</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1035,25 +1091,29 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="12">
         <v>6</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="1"/>
       <c r="K8" s="25"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="21">
         <v>6</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="R8" s="7">
+        <v>89</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1070,14 +1130,14 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="12">
         <v>7</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1"/>
@@ -1085,18 +1145,22 @@
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="25"/>
       <c r="Q9" s="21">
         <v>7</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="R9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1113,25 +1177,25 @@
       <c r="D10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="12">
         <v>8</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="1"/>
       <c r="K10" s="25"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="21">
         <v>8</v>
       </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1168,16 +1232,16 @@
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <v>16</v>
       </c>
       <c r="G12" s="12">
         <v>1</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
@@ -1187,10 +1251,10 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="26" t="s">
         <v>34</v>
       </c>
       <c r="P12" s="25">
@@ -1199,8 +1263,8 @@
       <c r="Q12" s="21">
         <v>1</v>
       </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1217,25 +1281,25 @@
       <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="12">
         <v>2</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="1"/>
       <c r="K13" s="25"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="21">
         <v>2</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1252,14 +1316,14 @@
       <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1"/>
@@ -1267,18 +1331,18 @@
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="26" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="21">
         <v>3</v>
       </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1295,25 +1359,25 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="12">
         <v>4</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="1"/>
       <c r="K15" s="25"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="21">
         <v>4</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1330,14 +1394,14 @@
       <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="12">
         <v>5</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="27" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
@@ -1373,12 +1437,12 @@
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="12">
         <v>6</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="1"/>
       <c r="K17" s="25"/>
       <c r="L17" s="2">
@@ -1412,14 +1476,14 @@
       <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="12">
         <v>7</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="27" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="1"/>
@@ -1455,12 +1519,12 @@
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="12">
         <v>8</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="1"/>
       <c r="K19" s="25"/>
       <c r="L19" s="2">
@@ -1518,10 +1582,10 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="1"/>
@@ -1561,8 +1625,8 @@
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="1"/>
       <c r="K22" s="25"/>
       <c r="L22" s="15">
@@ -1598,10 +1662,10 @@
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="26" t="s">
         <v>39</v>
       </c>
       <c r="J23" s="1"/>
@@ -1639,8 +1703,8 @@
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="1"/>
       <c r="K24" s="25"/>
       <c r="L24" s="15">
@@ -1676,10 +1740,10 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1"/>
@@ -1717,8 +1781,8 @@
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="1"/>
       <c r="K26" s="25"/>
       <c r="L26" s="15">
@@ -1752,10 +1816,10 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1"/>
@@ -1791,8 +1855,8 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="1"/>
       <c r="K28" s="25"/>
       <c r="L28" s="15">
@@ -1848,10 +1912,10 @@
       <c r="G30" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1"/>
@@ -1891,8 +1955,8 @@
       <c r="G31" s="18">
         <v>2</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="1"/>
       <c r="K31" s="25"/>
       <c r="L31" s="15">
@@ -1928,10 +1992,10 @@
       <c r="G32" s="18">
         <v>3</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="26" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
@@ -1969,8 +2033,8 @@
       <c r="G33" s="18">
         <v>4</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="K33" s="25"/>
       <c r="L33" s="15">
         <v>4</v>
@@ -2079,7 +2143,7 @@
       <c r="G36" s="18">
         <v>7</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="26" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="25" t="s">
@@ -2117,7 +2181,7 @@
       <c r="G37" s="18">
         <v>8</v>
       </c>
-      <c r="H37" s="23"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="15">
@@ -2131,7 +2195,49 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="58">
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="K12:K19"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="P12:P19"/>
     <mergeCell ref="P3:P10"/>
     <mergeCell ref="I30:I31"/>
@@ -2148,46 +2254,6 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="N14:N15"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2195,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
